--- a/500all/speech_level/speeches_CHRG-114hhrg99584.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99584.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. This joint hearing of the Subcommittee on Biotechnology, Horticulture, and Research, and the Subcommittee on Livestock and Foreign Agriculture, regarding defending American Agriculture against foreign pests and diseases, will come to order.    Thank you all for being here today. I would like to begin our opening statements, and wish each of you a good morning. I had the chance to meet you before the hearing, so thank you again for being here.    I am pleased to be here alongside my good friend and fellow Chairman, David Rouzer, the Chairman of the Subcommittee on Livestock and Foreign Agriculture, and I would like to thank him for this joint hearing in which we are going to highlight efforts to defend American agriculture against the introduction of foreign pests and diseases.    This hearing is the third in a series of hearings through which the Committee has been examining the significance of agriculture to our nation's security.    As Chairman of the Subcommittee on Biotechnology, Horticulture, and Research, it has been my honor to host hearings focusing on the extraordinary efforts of industry and academia that have led to the development, production, and marketing of an array of safe, wholesome, and affordable food. We have been blessed in this country with abundance, though we recognize that food insecurity is still a very real problem around the world and even within our own communities.    My colleagues and I understand the continuing need for Federal policies that promote and facilitate global food security for the benefit of our own national security. A significant component of ensuring food security is the capability to defend agricultural enterprises against the persistent threat of pest and disease introductions. Whether pests and diseases are introduced intentionally or unintentionally, we need to have the systems in place to detect and respond rapidly so that we can effectively control and eradicate these threats.    Through the Agricultural Quarantine Inspection Program, jointly operated by the USDA and DHS, we have the capacity for inspection, detection, and rapid response to pest and disease threats.    Today, we will be examining this program and how our continued investment in such functions is critical to protecting animal and plant health. It is our hope that our colleagues outside this Committee understand the real threats we face, and why it is so important that we continue to strengthen our investment in our critical agricultural infrastructure.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Davis. It is now my pleasure to yield to the Ranking Member of the Biotechnology, Horticulture, and Research Subcommittee, my good friend and colleague, Ms. DelBene.OPENING STATEMENT OF HON. SUZAN K. DelBENE, A REPRESENTATIVE IN </t>
   </si>
   <si>
-    <t>DelBene</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chairman. And I want to thank both our Chairmen, Mr. Davis and Mr. Rouzer, for holding this joint hearing, and to all of our witnesses for being here with us today.    Since the 1980s, the international trade of fruit and vegetables, or specialty crops, has been characterized by tremendous growth, driven by rising incomes and the expansion of the middle class worldwide. In the U.S., consumers are motivated to pursue an even healthier diet, and have pushed U.S. imports of fresh fruits and vegetables into remarkable rates of growth.    Here are some examples: In Fiscal Year 2015, the USDA forecast that fresh fruit imports would reach $10.3 billion, 8.9 percent higher than 2014, and 23 percent above Fiscal Year 2013. And fresh vegetable imports were forecast at $7.1 billion in, seven percent above Fiscal Year 2014, and eight percent above Fiscal Year 2013.    So while the local food movement continues to grow domestically, the fresh fruit and vegetable industry is rapidly globalizing.    There is, however, a simple but potentially devastating problem in the increased demand for fresh fruits and vegetables. As globalization and imports increase, so do the risks to domestic producers from foreign pests. And one thing I have consistently heard from growers in my district is that it is vastly easier to lose business from overseas markets when it is perceived that the integrity of a product is compromised. That it is easier to lose that business than it is to gain new business.    So, of course, most people don't think of agriculture in terms of national security, but they should.    The consequences to our economy and even our health can be compromised greatly when a new pest or disease is introduced into the ecosystem. However, through research and cooperation amongst agencies, we can be prepared to meet the challenges to come, safeguarding our economy and supporting our local fruit and vegetable growers in the process.    So thank you again to everyone for being here today.    And with that, I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412641</t>
   </si>
   <si>
-    <t>David Rouzer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rouzer. Thank you. Well, I guess thank you, Mr. Chairman. This is so I can keep a better eye on you, by the way. But thank you, nonetheless.    As Chairman Davis mentioned, and others, this hearing is the third in a series of hearings highlighting the crucial intersection of agriculture and our national security. In our first hearing last November, the full Agriculture Committee heard from Ambassador John Negroponte and Dr. Tammy Beckam, Dean of the Kansas State University College of Veterinary Medicine, in broad testimony concerning the various threats to agricultural security, as well as the economic significance associated with such threats.    In that first hearing, the Committee's focus was on how threats to global food security create instability among populations, and how this instability leads to violence and upheaval that ultimately threatens our own national security.    This past month, I hosted the second hearing of this series where we discussed with representatives of academia and the livestock industry, the incredible amount of work done by Federal and state agencies and the private-sector to defend against foot-and-mouth disease. We also discussed what work still needs to be done to expand our capabilities to deal with this disease should it ever be introduced into our herds.    Today, we are honored to be joined by representatives of USDA Animal and Plant Health Inspection Service, and the Department of Homeland Security's Customs and Border Protection Agriculture Program. Our objective is to take an in-depth look at Federal programs intended to defend against the introduction of diseases like foot-and-mouth disease, and what capabilities we have to prevent, control, and eradicate diseases should they be introduced.    Now, we face tremendous pest and disease pressures, which are being effectively managed by the hardworking men and women of USDA and DHS. Congress has a role to play in ensuring that the agencies have the tools they need to do this important work, so it is important that we hear from those charged with implementing these key programs.    I look forward to today's conversation.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>400618</t>
   </si>
   <si>
-    <t>Jim Costa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costa. Thank you very much, Chairmen, and the Ranking Member, and Members of both Subcommittees who are here this morning for a hearing that has a lot of importance for American agriculture throughout the country.    I am not so sure who is in charge of the lighting here, but it seems to me we could shed a little more light, besides the subject matter, I am not so sure why it is as dark as it is, but maybe staff could do something about that, Mr. Chairmen.    We are here to discuss the American preparedness to face the potential devastating impact that foreign pests and diseases have on American agriculture. That is helpful, thank you. That is shedding a little more light on things.</t>
   </si>
   <si>
@@ -100,33 +88,21 @@
     <t xml:space="preserve">    Mr. Davis. Thank you to Mr. Costa.    And we are proud to be joined today by the Chairman of the full House Agriculture Committee, who I would like to now recognize to give any statement he wishes.</t>
   </si>
   <si>
-    <t>Conaway</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conaway. Well, thank you, Mr. Chairman, Chairman, Ranking Member, Ranking Member. I appreciate the witnesses being here today.    Americans enjoy the most affordable, most abundant, and the safest food and fiber supply of any developed nation in the world. They enjoy it in their pocketbooks, but they don't know why it happens. And the safest part of it is what you will hear from the witnesses today. I am excited about understanding the work that you do and the importance of protecting the safety of the food supply.    National security and agriculture are linked at the hip, at the shoulder, and elbow. You can't have one without the other. President Bush said that the nation that can feed itself is more secure than a nation that can't. And so an integral part of that is the safety of the food, not only what is grown in the United States, but what is grown outside the United States and brought in. And the role that you and your agencies play in making sure that continues to be the safest in the world is important. I am looking forward to hearing from each of you.    And with that, Mr. Chairman, Chairman, Ranking Member, Ranking Member, I yield back. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman, Chairman, Chairman.    The chair would request that other Members submit their opening statements for the record so the witnesses may begin their testimony, and to ensure that there is ample time for questions.    The chair would like to remind Members that they will be recognized for questioning in order of seniority for Members who were present at the start of the hearing. After that, Members will be recognized in order of their arrival. I appreciate Members' understanding.    Witnesses are reminded to limit their oral presentations to 5 minutes. All written statements will be included in the record. Over the course of today's hearing, following the testimony of the witnesses, everyone at the table will be able and will be available to answer any questions.    And now I would like to again welcome our witnesses to the table.    I would like to introduce Mr. Kevin Shea, the Administrator of the USDA, Animal and Plant Health Inspection Service, right here in Washington, D.C., and to give his opening statements. And I know he is accompanied today by Mr. Osama El-Lissy, Deputy Administrator, APHIS Plant Protection and Quarantine, and Dr. Jack Shere, Acting Chief Veterinarian Officer and Deputy Administrator, APHIS Veterinary Service.    So, Mr. Shea, please go ahead.       Ph.D., ACTING CHIEF VETERINARY OFFICER AND DEPUTY </t>
   </si>
   <si>
-    <t>Shea</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shea. Thank you, Mr. Chairman, Congresswoman DelBene, Congressman Costa, Chairman Conaway, and all Members. I appreciate this opportunity, and I very much appreciate that you are bringing light on this important issue for all Americans.    Safeguarding against significant plant and animal pests and diseases is vital to protecting industry, producers, and consumers, and ensuring that we have a safe and secure food supply. It is a top priority for all of USDA. It is the top priority for us in APHIS. Simply put, it is why we exist, and the reason over 8,000 employees in APHIS go to work every day.    The impact of pests and diseases on the U.S. economy can be staggering. For example, the outbreak of highly pathogenic avian influenza last year, which was the largest foreign animal disease outbreak in American history, cost taxpayers nearly $1 billion, just in response, cleanup, and indemnity costs. And that doesn't include lost export markets or temporary shortages, or price increases for poultry and eggs.    Our approach to safeguarding really runs along continuum, from overseas to every American farm and ranch, and every means of distribution. Our first goal always is to keep pests and diseases out of the country, and we think we have done a good job in that regard. But we can't guarantee those efforts will always succeed, so we have to be able to quickly detect any pests and diseases that do arrive, and quickly and efficiently control and eradicate those threats.    While increased trade has helped American agriculture prosper, and provided more abundant food and products for all Americans, the sheer volume of traffic inevitably means that pests and diseases have more opportunities to hitch a ride, whether inadvertently or deliberately.    Overseas, we work to exclude pests at their point of origin, long before shipments even reach our borders. We have APHIS employees stationed in more than 30 countries. They collect and analyze data on foreign pests and diseases to help us make better policy decisions here, such as where risk assessment should focus, and how we should modify our port of entry inspections. Our scientists conduct risk assessments that enable us to make informed decisions about the potential costs or risk of any pests or diseases that could come to the United States with any specific commodities. We only allow imports when we are convinced it is safe to do so.    At ports of entry, we work with our CBP colleagues to inspect arriving passengers and cargo to find any pests or diseases or their host. We provide CBP direction on which pests and diseases to look for, and we advise them on pathways that pose the highest risk. Also, we train CBP agricultural inspector specialists on how to enforce our regulations.    APHIS directly operates plant inspection stations for nursery stock and propagative plant materials. And we also inspect animals who cross the borders from Canada and Mexico. Domestically, we conduct surveillance to quickly detect any foreign pests and diseases that may have evaded our other safeguarding measures. Early pest detection is crucial to averting major damage.    Last year alone, we conducted surveys for 118 high-risk plant pests, along with routine surveillance for foreign emerging and endemic diseases. Our laboratories develop, validate, and conduct diagnostic testing for plant and animal pathogens, and we have expanded capacity through our state partners and university partners in the National Plant Diagnostic Network and the National Animal Health Laboratory Network.    Should a pest or disease arrive in this country, APHIS and our state, industry, and other Federal partners, work quickly to respond, as we did to high-path avian influenza last year. And I would add that 2015 was also a challenging year on the plant health and specialty crop side. We found more exotic fruit flies than we have in 20 years, with 12 outbreaks in California, Florida, Puerto Rico, and Texas. But the good news is that we did rapidly detect them, responded, and contained them. We have already eradicated ten of those, and another pest that we are on the verge of eradication is the European grapevine moth in California.    I would like to mention two last things. First, this Committee has recognized in the last two farm bills the grave threat that plant pests and diseases pose to the safety and security of our food supply, and put in place the Plant Pest and Disease Management and Disaster Prevention Program, better known by its section number 10007, and that has greatly expanded our ability to detect, exclude, and respond to pest diseases.    Over the last 3 years, we have funded over 2,600 projects.    Last, I want to mention that one of the other major lessons we learned last year in the avian influenza outbreak is that our veterinary and animal health infrastructure had declined to the point we were not able to respond as quickly or as well as we would have needed to. I think we did a good job given what we had, but we know now we need to have more resources in animal health. And indeed, in our budget that is before the Appropriations Committee now, we have requested nearly a $30 million increase, to put in place 80 more veterinarians and animal health technicians around the country for quick response.    In conclusion, I want to assure you that APHIS understands that safeguarding against foreign plant and animal pests and diseases is our top priority, and we will continue to take that mission very, very seriously. After all, it is, indeed, the foundation of feeding and clothing America, and really the world, to have health agriculture.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Administrator Shea.    Now we are proud to be joined today by Mr. Kevin Harriger, the Executive Director of Agriculture Programs and Trade Liaison in the Office of Field Operations, with the U.S. Customs and Border Protection here in Washington, D.C. And Mr. Harriger is accompanied by Ms. Kristi Currier, an Agriculture Specialist at the CBP, and also hiding under the desk, Agriculture Products Detection Canine Calan, who is in Dulles, Virginia, on regular occasion. I know you might be going over your 5 minutes, and I want to let you know, sir, that that is completely fine, because you are going to give us a little bit of a demonstration during your opening testimony. And I would like to welcome you to offer that testimony.</t>
   </si>
   <si>
-    <t>Harriger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harriger. Good morning. Thank you, Chairman Davis, Chairman Rouzer, Chairman Conaway, Ranking Members DelBene and Costa, and distinguished Members of the Committees. Thank you for the opportunity to testify today on the role of U.S. Customs and Border Protection in protecting our nations' agricultural security.    When the Department of Homeland Security was created in 2003, and the agricultural quarantine inspection mission at our ports of entry transitioned from USDA's Animal and Plant Health Inspection Service to CBP, I transferred along with it. Throughout my 34 years of service with CBP and the USDA, leading agricultural compliance, inspection, pest exclusion, and eradication programs, I learned firsthand the challenges and risks associated with securing our nation from agricultural threats, while simultaneously facilitating lawful travel and trade that is so critical to our economy.    As the nation's unified border security agency, CBP continues to work closely with the USDA and other government and private-sector partners to protect the nation from a variety of diverse threats, including those posed by plant pests, biological agents, and foreign animal diseases arriving by air, land, and sea. Agricultural inspections have traditionally focused on the unintentional introduction of pests and diseases; those unnoticed and associated with someone's luggage, or hitchhiking on the floor of a container. With the added danger of agro-terrorism, that is, intentional introduction of pests, diseases, or biological agents, the role of the CBP's agriculture specialists at our ports of entry is more crucial than ever.    CBP's Agricultural Quarantine Inspection Programs are a key component of our border security mission. CBP's more than 2,400 highly trained CBP agriculture specialists, located at approximately 180 ports of entry, perform the complex function of determining the admissibility of agriculture commodities, and preventing the introduction of harmful pests, diseases, and potential agro-terrorism into the United States. CBP's multi-layered agricultural security approach involves several key programs that increase CBP's awareness of what may be inside shipments or carried by travelers, and enhance our ability to assess whether it poses a risk to our natural resources.    I would like to highlight just a few of those efforts for you today.    First, many of the same analytical tools used in support of CBP's antiterrorism activities related to the movement of cargo and travelers are also used to target potentially harmful agricultural items that may be approaching our borders. To enhance agriculture targeting, CBP has developed the framework for a National Agriculture Cargo Targeting Unit that focuses solely on agricultural threats in all cargo pathways. This specialized unit creates a centralized national-level repository of agriculture intelligence, enabling efficient dissemination and information to local ports of entry for appropriate action.    Second, in addition to our targeting capabilities, CBP deploys a variety of specialized detection technologies and resources. CBP's agriculture detection canines, for example, are a key operational asset when screening passengers, cargo, and conveyances, to prevent the introduction of prohibited agricultural materials that can harbor harmful plant pests and foreign animal diseases.    And, Members, at this time, I would like to defer to CBP Agriculture Specialist Currier, and her trusty pal, to give a little demonstration on the efficiency and efficacy of our canine program.</t>
   </si>
   <si>
-    <t>Currier</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Currier. Good morning. I am U.S. Customs and Border Protection Agriculture Specialist Canine Handler Currier, working out of Dulles. My current canine has been with me for a little over 3 years. I don't know if you are aware of it, but our canines learn their odors in context, so he can easily be off duty and be a regular dog at some times, but when he is on that baggage floor, he is concentrating on passengers and their luggage.    They start with five basic odors down in the training center, and throughout their life, we are continuing to add more odors to what is specific to the port that the dog is assigned to.    Calan handles about 60 different odors, but he also generalizes, and that is one of the ways he builds his repertoire is, when he smells something that is sort of like one of his targets, he will see if he can get a response out of me by him doing his response, which is a basic quiet sit, and then if he gets rewarded for it, he adds it to his list. Beagles love food, so they are highly motivated by our reward system.    Shall I?</t>
   </si>
   <si>
@@ -223,9 +199,6 @@
     <t xml:space="preserve">    Mr. Davis. Thank you, Chairman Rouzer.    I would now like to recognize our colleague from the great State of Florida, Ms. Graham, for her questions.</t>
   </si>
   <si>
-    <t>Graham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Graham. Thank you, Mr. Chairman, I appreciate it. And I thank you to all the witnesses, and to Calan, who is asleep. Gosh, I have a puppy. If only Calan could give my puppy some advice.    Again, thank you. I am from Florida, and so you probably can guess what my question is going to be about. Our state has been devastated by citrus greening, which is an example of an infestation that has such a significant impact on the economy of Florida. And it is spreading now. I mean it is spreading, it is in Texas, it is in California. So I would appreciate an update on what we are doing to address this threat, from Mr. Shea or anyone else who would like to speak to the question.</t>
   </si>
   <si>
@@ -247,9 +220,6 @@
     <t xml:space="preserve">    Mr. Shea. Okay. We have been able to handle that, but I would like Mr. El-Lissy to get into some detail about that, if he would.    Mr. Austin Scott of Georgia. Okay.</t>
   </si>
   <si>
-    <t>El-Lissy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. El-Lissy. The cottonseed bug was detected back in 2010, and since then, we have been working with the Florida Department of Agriculture and local officials in surveying and eradicating the pest. So far, we have been able to eradicate it, and we continue to monitor the population there, just to make sure that it is no longer there, and the eradication is still viable, and we have mitigated the problem that way.    Mr. Austin Scott of Georgia. Thank you. And you mentioned the Florida Department of Agriculture. Could you speak further to the relationship between the research and extension at the state level with regard to the eradication of these diseases?</t>
   </si>
   <si>
@@ -259,9 +229,6 @@
     <t xml:space="preserve">    Mr. Shea. Congressman, I would like to ask Dr. Shere, who is not only our Chief Veterinary Officer but a poultry disease specialist, to talk about that.</t>
   </si>
   <si>
-    <t>Shere</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Shere. Thank you. As far as the interagency efforts, we work strongly with all of the states and with the industry in the area of high-path AI. It is very important that we have strong partnerships and strong understandings with them. We want to look at what the infrastructure is in each state and try to build that, and build around that. We work through a cooperative agreement process reinforcing, not only their resources, but that partnership. So we work strongly with each of the states, their Departments of Agriculture, and with the wildlife agencies within those states, the DNRs, also to help us with the tracking of this disease.    We have tested, through a national tracking program and testing program, over 40,000 wild birds. We use that system as an early indication of the disease and a warning system for us.    Mr. Austin Scott of Georgia. I am down to less than a minute. What are the biggest challenges with regard to tracking that disease?</t>
   </si>
   <si>
@@ -307,9 +274,6 @@
     <t>412660</t>
   </si>
   <si>
-    <t>Dan Newhouse</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Costa.    I will recognize myself now for 5 minutes.    I represent the State of Washington, and this is certainly a very big issue in our state as well. And I just want to thank you, Administrator Shea, as well as Mr. Harriger for being here, and all of our witnesses on the panel, especially our canine guest. Kind of brings a different kind of atmosphere. Maybe we should have canines here more often.    But I would say that the average American, myself included, probably takes for granted some of the remarkable things that are done to protect our food supply and our agricultural industry from pests and diseases, so I just want to recognize the great work that you do. I am a former director of our Department of Agriculture, and sometimes I felt like I was the Little Dutch Boy with my finger in the dyke, which is, I know, sometimes how you feel as well. There are a lot of things trying to get in, and a lot of effort that we have to put forth to prevent that.</t>
   </si>
   <si>
@@ -334,9 +298,6 @@
     <t>412580</t>
   </si>
   <si>
-    <t>Filemon Vela</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vela. Thank you.    Mr. Shea, I have two questions for you. And I am very familiar with your agency's work on the Texas-Mexico border. And as you know, along the Rio Grande and on the California-Arizona-New Mexico border as well, the border walls don't really help us fight disease. Right? And with respect to, whether it be boll weevil or citrus greening, or fruit fly or even fever tick, one of the things I am wondering about is, what are your thoughts in terms of efforts to fight disease on our side of the border versus the efforts of the Mexican Government to do so on its side?</t>
   </si>
   <si>
@@ -367,9 +328,6 @@
     <t xml:space="preserve">    Mr. Vela. I yield back.    Mr. Kelly [presiding.] The gentleman's time has expired. I now recognize Mr. Denham for 5 minutes.</t>
   </si>
   <si>
-    <t>Denham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Denham. Thank you, Mr. Chairman.    Mr. Shea, first of all, let me thank you for the work that you have done on avian influenza in California. California continues to face a number of different threats, but I know there has been some great work done on avian influenza.    One of our other challenges: I have a lot of citrus and stone fruit crops in our area. We have had issues with citrus greening and plum pox virus. Those have been addressed in our area. Our concern is that Canada does not have the same eradication policies that we do. My question to you would be, are you working with our Canadian counterparts, and do you see future efforts there to address it before it comes to our area?</t>
   </si>
   <si>
@@ -401,9 +359,6 @@
   </si>
   <si>
     <t>412673</t>
-  </si>
-  <si>
-    <t>Trent Kelly</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Kelly. The gentleman's time has expired.    I will now recognize myself for 5 minutes for questions.</t>
@@ -832,11 +787,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -858,11 +811,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -884,11 +835,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -910,11 +859,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -934,13 +881,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -960,13 +905,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -986,13 +929,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1014,11 +955,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1038,13 +977,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1066,11 +1003,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1092,11 +1027,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1118,11 +1051,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1144,11 +1075,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1170,11 +1099,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1196,11 +1123,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1222,11 +1147,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1248,11 +1171,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1274,11 +1195,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1300,11 +1219,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1326,11 +1243,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1352,11 +1267,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1378,11 +1291,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1404,11 +1315,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1430,11 +1339,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1456,11 +1363,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1482,11 +1387,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1508,11 +1411,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1534,11 +1435,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>36</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1560,11 +1459,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1586,11 +1483,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1612,11 +1507,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1638,11 +1531,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1664,11 +1555,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1690,11 +1579,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1716,11 +1603,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1742,11 +1627,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>31</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1768,11 +1651,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1794,11 +1675,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>31</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1820,11 +1699,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1846,11 +1723,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1870,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1898,11 +1771,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>31</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1922,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1950,11 +1819,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>31</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1974,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2002,11 +1867,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>34</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2026,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2054,11 +1915,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2080,11 +1939,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>69</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2106,11 +1963,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>31</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2132,11 +1987,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>69</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2158,11 +2011,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>31</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2184,11 +2035,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>69</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2210,11 +2059,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2236,11 +2083,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>31</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2262,11 +2107,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>77</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2288,11 +2131,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>77</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2314,11 +2155,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>31</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2340,11 +2179,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>81</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2366,11 +2203,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>81</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2392,11 +2227,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>81</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2418,11 +2251,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>81</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2442,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2470,11 +2299,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>31</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2494,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2522,11 +2347,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2546,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2574,11 +2395,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>31</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2600,11 +2419,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>34</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2624,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2652,11 +2467,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2676,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2702,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>96</v>
-      </c>
-      <c r="G74" t="s">
-        <v>97</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2730,11 +2539,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>31</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2754,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>96</v>
-      </c>
-      <c r="G76" t="s">
-        <v>97</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2782,11 +2587,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>31</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2806,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
-      </c>
-      <c r="G78" t="s">
-        <v>97</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2834,11 +2635,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>31</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2858,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
-      </c>
-      <c r="G80" t="s">
-        <v>97</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2884,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>105</v>
-      </c>
-      <c r="G81" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2912,11 +2707,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>31</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2936,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
-      </c>
-      <c r="G83" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2964,11 +2755,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>31</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2990,11 +2779,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>81</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3014,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
-      </c>
-      <c r="G86" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3042,11 +2827,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>81</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3066,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
-      </c>
-      <c r="G88" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3094,11 +2875,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>34</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3118,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
-      </c>
-      <c r="G90" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3146,11 +2923,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>117</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3172,11 +2947,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>31</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3198,11 +2971,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>117</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3224,11 +2995,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>31</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3250,11 +3019,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>77</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3276,11 +3043,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>117</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3302,11 +3067,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>31</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3328,11 +3091,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>117</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3354,11 +3115,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>34</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3380,11 +3139,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>117</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3404,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>128</v>
-      </c>
-      <c r="G101" t="s">
-        <v>129</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3432,11 +3187,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>31</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3456,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>128</v>
-      </c>
-      <c r="G103" t="s">
-        <v>129</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3484,11 +3235,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>31</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3508,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>128</v>
-      </c>
-      <c r="G105" t="s">
-        <v>129</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3536,11 +3283,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>31</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3560,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>128</v>
-      </c>
-      <c r="G107" t="s">
-        <v>129</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3588,11 +3331,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>31</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3612,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>128</v>
-      </c>
-      <c r="G109" t="s">
-        <v>129</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3640,11 +3379,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>34</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99584.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99584.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Davis. This joint hearing of the Subcommittee on Biotechnology, Horticulture, and Research, and the Subcommittee on Livestock and Foreign Agriculture, regarding defending American Agriculture against foreign pests and diseases, will come to order.    Thank you all for being here today. I would like to begin our opening statements, and wish each of you a good morning. I had the chance to meet you before the hearing, so thank you again for being here.    I am pleased to be here alongside my good friend and fellow Chairman, David Rouzer, the Chairman of the Subcommittee on Livestock and Foreign Agriculture, and I would like to thank him for this joint hearing in which we are going to highlight efforts to defend American agriculture against the introduction of foreign pests and diseases.    This hearing is the third in a series of hearings through which the Committee has been examining the significance of agriculture to our nation's security.    As Chairman of the Subcommittee on Biotechnology, Horticulture, and Research, it has been my honor to host hearings focusing on the extraordinary efforts of industry and academia that have led to the development, production, and marketing of an array of safe, wholesome, and affordable food. We have been blessed in this country with abundance, though we recognize that food insecurity is still a very real problem around the world and even within our own communities.    My colleagues and I understand the continuing need for Federal policies that promote and facilitate global food security for the benefit of our own national security. A significant component of ensuring food security is the capability to defend agricultural enterprises against the persistent threat of pest and disease introductions. Whether pests and diseases are introduced intentionally or unintentionally, we need to have the systems in place to detect and respond rapidly so that we can effectively control and eradicate these threats.    Through the Agricultural Quarantine Inspection Program, jointly operated by the USDA and DHS, we have the capacity for inspection, detection, and rapid response to pest and disease threats.    Today, we will be examining this program and how our continued investment in such functions is critical to protecting animal and plant health. It is our hope that our colleagues outside this Committee understand the real threats we face, and why it is so important that we continue to strengthen our investment in our critical agricultural infrastructure.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Davis. It is now my pleasure to yield to the Ranking Member of the Biotechnology, Horticulture, and Research Subcommittee, my good friend and colleague, Ms. DelBene.OPENING STATEMENT OF HON. SUZAN K. DelBENE, A REPRESENTATIVE IN </t>
   </si>
   <si>
+    <t>DelBene</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chairman. And I want to thank both our Chairmen, Mr. Davis and Mr. Rouzer, for holding this joint hearing, and to all of our witnesses for being here with us today.    Since the 1980s, the international trade of fruit and vegetables, or specialty crops, has been characterized by tremendous growth, driven by rising incomes and the expansion of the middle class worldwide. In the U.S., consumers are motivated to pursue an even healthier diet, and have pushed U.S. imports of fresh fruits and vegetables into remarkable rates of growth.    Here are some examples: In Fiscal Year 2015, the USDA forecast that fresh fruit imports would reach $10.3 billion, 8.9 percent higher than 2014, and 23 percent above Fiscal Year 2013. And fresh vegetable imports were forecast at $7.1 billion in, seven percent above Fiscal Year 2014, and eight percent above Fiscal Year 2013.    So while the local food movement continues to grow domestically, the fresh fruit and vegetable industry is rapidly globalizing.    There is, however, a simple but potentially devastating problem in the increased demand for fresh fruits and vegetables. As globalization and imports increase, so do the risks to domestic producers from foreign pests. And one thing I have consistently heard from growers in my district is that it is vastly easier to lose business from overseas markets when it is perceived that the integrity of a product is compromised. That it is easier to lose that business than it is to gain new business.    So, of course, most people don't think of agriculture in terms of national security, but they should.    The consequences to our economy and even our health can be compromised greatly when a new pest or disease is introduced into the ecosystem. However, through research and cooperation amongst agencies, we can be prepared to meet the challenges to come, safeguarding our economy and supporting our local fruit and vegetable growers in the process.    So thank you again to everyone for being here today.    And with that, I yield back.</t>
   </si>
   <si>
@@ -67,6 +76,12 @@
     <t>412641</t>
   </si>
   <si>
+    <t>Rouzer</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rouzer. Thank you. Well, I guess thank you, Mr. Chairman. This is so I can keep a better eye on you, by the way. But thank you, nonetheless.    As Chairman Davis mentioned, and others, this hearing is the third in a series of hearings highlighting the crucial intersection of agriculture and our national security. In our first hearing last November, the full Agriculture Committee heard from Ambassador John Negroponte and Dr. Tammy Beckam, Dean of the Kansas State University College of Veterinary Medicine, in broad testimony concerning the various threats to agricultural security, as well as the economic significance associated with such threats.    In that first hearing, the Committee's focus was on how threats to global food security create instability among populations, and how this instability leads to violence and upheaval that ultimately threatens our own national security.    This past month, I hosted the second hearing of this series where we discussed with representatives of academia and the livestock industry, the incredible amount of work done by Federal and state agencies and the private-sector to defend against foot-and-mouth disease. We also discussed what work still needs to be done to expand our capabilities to deal with this disease should it ever be introduced into our herds.    Today, we are honored to be joined by representatives of USDA Animal and Plant Health Inspection Service, and the Department of Homeland Security's Customs and Border Protection Agriculture Program. Our objective is to take an in-depth look at Federal programs intended to defend against the introduction of diseases like foot-and-mouth disease, and what capabilities we have to prevent, control, and eradicate diseases should they be introduced.    Now, we face tremendous pest and disease pressures, which are being effectively managed by the hardworking men and women of USDA and DHS. Congress has a role to play in ensuring that the agencies have the tools they need to do this important work, so it is important that we hear from those charged with implementing these key programs.    I look forward to today's conversation.</t>
   </si>
   <si>
@@ -76,6 +91,12 @@
     <t>400618</t>
   </si>
   <si>
+    <t>Costa</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Costa. Thank you very much, Chairmen, and the Ranking Member, and Members of both Subcommittees who are here this morning for a hearing that has a lot of importance for American agriculture throughout the country.    I am not so sure who is in charge of the lighting here, but it seems to me we could shed a little more light, besides the subject matter, I am not so sure why it is as dark as it is, but maybe staff could do something about that, Mr. Chairmen.    We are here to discuss the American preparedness to face the potential devastating impact that foreign pests and diseases have on American agriculture. That is helpful, thank you. That is shedding a little more light on things.</t>
   </si>
   <si>
@@ -88,21 +109,33 @@
     <t xml:space="preserve">    Mr. Davis. Thank you to Mr. Costa.    And we are proud to be joined today by the Chairman of the full House Agriculture Committee, who I would like to now recognize to give any statement he wishes.</t>
   </si>
   <si>
+    <t>Conaway</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conaway. Well, thank you, Mr. Chairman, Chairman, Ranking Member, Ranking Member. I appreciate the witnesses being here today.    Americans enjoy the most affordable, most abundant, and the safest food and fiber supply of any developed nation in the world. They enjoy it in their pocketbooks, but they don't know why it happens. And the safest part of it is what you will hear from the witnesses today. I am excited about understanding the work that you do and the importance of protecting the safety of the food supply.    National security and agriculture are linked at the hip, at the shoulder, and elbow. You can't have one without the other. President Bush said that the nation that can feed itself is more secure than a nation that can't. And so an integral part of that is the safety of the food, not only what is grown in the United States, but what is grown outside the United States and brought in. And the role that you and your agencies play in making sure that continues to be the safest in the world is important. I am looking forward to hearing from each of you.    And with that, Mr. Chairman, Chairman, Ranking Member, Ranking Member, I yield back. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman, Chairman, Chairman.    The chair would request that other Members submit their opening statements for the record so the witnesses may begin their testimony, and to ensure that there is ample time for questions.    The chair would like to remind Members that they will be recognized for questioning in order of seniority for Members who were present at the start of the hearing. After that, Members will be recognized in order of their arrival. I appreciate Members' understanding.    Witnesses are reminded to limit their oral presentations to 5 minutes. All written statements will be included in the record. Over the course of today's hearing, following the testimony of the witnesses, everyone at the table will be able and will be available to answer any questions.    And now I would like to again welcome our witnesses to the table.    I would like to introduce Mr. Kevin Shea, the Administrator of the USDA, Animal and Plant Health Inspection Service, right here in Washington, D.C., and to give his opening statements. And I know he is accompanied today by Mr. Osama El-Lissy, Deputy Administrator, APHIS Plant Protection and Quarantine, and Dr. Jack Shere, Acting Chief Veterinarian Officer and Deputy Administrator, APHIS Veterinary Service.    So, Mr. Shea, please go ahead.       Ph.D., ACTING CHIEF VETERINARY OFFICER AND DEPUTY </t>
   </si>
   <si>
+    <t>Shea</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shea. Thank you, Mr. Chairman, Congresswoman DelBene, Congressman Costa, Chairman Conaway, and all Members. I appreciate this opportunity, and I very much appreciate that you are bringing light on this important issue for all Americans.    Safeguarding against significant plant and animal pests and diseases is vital to protecting industry, producers, and consumers, and ensuring that we have a safe and secure food supply. It is a top priority for all of USDA. It is the top priority for us in APHIS. Simply put, it is why we exist, and the reason over 8,000 employees in APHIS go to work every day.    The impact of pests and diseases on the U.S. economy can be staggering. For example, the outbreak of highly pathogenic avian influenza last year, which was the largest foreign animal disease outbreak in American history, cost taxpayers nearly $1 billion, just in response, cleanup, and indemnity costs. And that doesn't include lost export markets or temporary shortages, or price increases for poultry and eggs.    Our approach to safeguarding really runs along continuum, from overseas to every American farm and ranch, and every means of distribution. Our first goal always is to keep pests and diseases out of the country, and we think we have done a good job in that regard. But we can't guarantee those efforts will always succeed, so we have to be able to quickly detect any pests and diseases that do arrive, and quickly and efficiently control and eradicate those threats.    While increased trade has helped American agriculture prosper, and provided more abundant food and products for all Americans, the sheer volume of traffic inevitably means that pests and diseases have more opportunities to hitch a ride, whether inadvertently or deliberately.    Overseas, we work to exclude pests at their point of origin, long before shipments even reach our borders. We have APHIS employees stationed in more than 30 countries. They collect and analyze data on foreign pests and diseases to help us make better policy decisions here, such as where risk assessment should focus, and how we should modify our port of entry inspections. Our scientists conduct risk assessments that enable us to make informed decisions about the potential costs or risk of any pests or diseases that could come to the United States with any specific commodities. We only allow imports when we are convinced it is safe to do so.    At ports of entry, we work with our CBP colleagues to inspect arriving passengers and cargo to find any pests or diseases or their host. We provide CBP direction on which pests and diseases to look for, and we advise them on pathways that pose the highest risk. Also, we train CBP agricultural inspector specialists on how to enforce our regulations.    APHIS directly operates plant inspection stations for nursery stock and propagative plant materials. And we also inspect animals who cross the borders from Canada and Mexico. Domestically, we conduct surveillance to quickly detect any foreign pests and diseases that may have evaded our other safeguarding measures. Early pest detection is crucial to averting major damage.    Last year alone, we conducted surveys for 118 high-risk plant pests, along with routine surveillance for foreign emerging and endemic diseases. Our laboratories develop, validate, and conduct diagnostic testing for plant and animal pathogens, and we have expanded capacity through our state partners and university partners in the National Plant Diagnostic Network and the National Animal Health Laboratory Network.    Should a pest or disease arrive in this country, APHIS and our state, industry, and other Federal partners, work quickly to respond, as we did to high-path avian influenza last year. And I would add that 2015 was also a challenging year on the plant health and specialty crop side. We found more exotic fruit flies than we have in 20 years, with 12 outbreaks in California, Florida, Puerto Rico, and Texas. But the good news is that we did rapidly detect them, responded, and contained them. We have already eradicated ten of those, and another pest that we are on the verge of eradication is the European grapevine moth in California.    I would like to mention two last things. First, this Committee has recognized in the last two farm bills the grave threat that plant pests and diseases pose to the safety and security of our food supply, and put in place the Plant Pest and Disease Management and Disaster Prevention Program, better known by its section number 10007, and that has greatly expanded our ability to detect, exclude, and respond to pest diseases.    Over the last 3 years, we have funded over 2,600 projects.    Last, I want to mention that one of the other major lessons we learned last year in the avian influenza outbreak is that our veterinary and animal health infrastructure had declined to the point we were not able to respond as quickly or as well as we would have needed to. I think we did a good job given what we had, but we know now we need to have more resources in animal health. And indeed, in our budget that is before the Appropriations Committee now, we have requested nearly a $30 million increase, to put in place 80 more veterinarians and animal health technicians around the country for quick response.    In conclusion, I want to assure you that APHIS understands that safeguarding against foreign plant and animal pests and diseases is our top priority, and we will continue to take that mission very, very seriously. After all, it is, indeed, the foundation of feeding and clothing America, and really the world, to have health agriculture.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Administrator Shea.    Now we are proud to be joined today by Mr. Kevin Harriger, the Executive Director of Agriculture Programs and Trade Liaison in the Office of Field Operations, with the U.S. Customs and Border Protection here in Washington, D.C. And Mr. Harriger is accompanied by Ms. Kristi Currier, an Agriculture Specialist at the CBP, and also hiding under the desk, Agriculture Products Detection Canine Calan, who is in Dulles, Virginia, on regular occasion. I know you might be going over your 5 minutes, and I want to let you know, sir, that that is completely fine, because you are going to give us a little bit of a demonstration during your opening testimony. And I would like to welcome you to offer that testimony.</t>
   </si>
   <si>
+    <t>Harriger</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Harriger. Good morning. Thank you, Chairman Davis, Chairman Rouzer, Chairman Conaway, Ranking Members DelBene and Costa, and distinguished Members of the Committees. Thank you for the opportunity to testify today on the role of U.S. Customs and Border Protection in protecting our nations' agricultural security.    When the Department of Homeland Security was created in 2003, and the agricultural quarantine inspection mission at our ports of entry transitioned from USDA's Animal and Plant Health Inspection Service to CBP, I transferred along with it. Throughout my 34 years of service with CBP and the USDA, leading agricultural compliance, inspection, pest exclusion, and eradication programs, I learned firsthand the challenges and risks associated with securing our nation from agricultural threats, while simultaneously facilitating lawful travel and trade that is so critical to our economy.    As the nation's unified border security agency, CBP continues to work closely with the USDA and other government and private-sector partners to protect the nation from a variety of diverse threats, including those posed by plant pests, biological agents, and foreign animal diseases arriving by air, land, and sea. Agricultural inspections have traditionally focused on the unintentional introduction of pests and diseases; those unnoticed and associated with someone's luggage, or hitchhiking on the floor of a container. With the added danger of agro-terrorism, that is, intentional introduction of pests, diseases, or biological agents, the role of the CBP's agriculture specialists at our ports of entry is more crucial than ever.    CBP's Agricultural Quarantine Inspection Programs are a key component of our border security mission. CBP's more than 2,400 highly trained CBP agriculture specialists, located at approximately 180 ports of entry, perform the complex function of determining the admissibility of agriculture commodities, and preventing the introduction of harmful pests, diseases, and potential agro-terrorism into the United States. CBP's multi-layered agricultural security approach involves several key programs that increase CBP's awareness of what may be inside shipments or carried by travelers, and enhance our ability to assess whether it poses a risk to our natural resources.    I would like to highlight just a few of those efforts for you today.    First, many of the same analytical tools used in support of CBP's antiterrorism activities related to the movement of cargo and travelers are also used to target potentially harmful agricultural items that may be approaching our borders. To enhance agriculture targeting, CBP has developed the framework for a National Agriculture Cargo Targeting Unit that focuses solely on agricultural threats in all cargo pathways. This specialized unit creates a centralized national-level repository of agriculture intelligence, enabling efficient dissemination and information to local ports of entry for appropriate action.    Second, in addition to our targeting capabilities, CBP deploys a variety of specialized detection technologies and resources. CBP's agriculture detection canines, for example, are a key operational asset when screening passengers, cargo, and conveyances, to prevent the introduction of prohibited agricultural materials that can harbor harmful plant pests and foreign animal diseases.    And, Members, at this time, I would like to defer to CBP Agriculture Specialist Currier, and her trusty pal, to give a little demonstration on the efficiency and efficacy of our canine program.</t>
   </si>
   <si>
+    <t>Currier</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Currier. Good morning. I am U.S. Customs and Border Protection Agriculture Specialist Canine Handler Currier, working out of Dulles. My current canine has been with me for a little over 3 years. I don't know if you are aware of it, but our canines learn their odors in context, so he can easily be off duty and be a regular dog at some times, but when he is on that baggage floor, he is concentrating on passengers and their luggage.    They start with five basic odors down in the training center, and throughout their life, we are continuing to add more odors to what is specific to the port that the dog is assigned to.    Calan handles about 60 different odors, but he also generalizes, and that is one of the ways he builds his repertoire is, when he smells something that is sort of like one of his targets, he will see if he can get a response out of me by him doing his response, which is a basic quiet sit, and then if he gets rewarded for it, he adds it to his list. Beagles love food, so they are highly motivated by our reward system.    Shall I?</t>
   </si>
   <si>
@@ -199,6 +232,9 @@
     <t xml:space="preserve">    Mr. Davis. Thank you, Chairman Rouzer.    I would now like to recognize our colleague from the great State of Florida, Ms. Graham, for her questions.</t>
   </si>
   <si>
+    <t>Graham</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Graham. Thank you, Mr. Chairman, I appreciate it. And I thank you to all the witnesses, and to Calan, who is asleep. Gosh, I have a puppy. If only Calan could give my puppy some advice.    Again, thank you. I am from Florida, and so you probably can guess what my question is going to be about. Our state has been devastated by citrus greening, which is an example of an infestation that has such a significant impact on the economy of Florida. And it is spreading now. I mean it is spreading, it is in Texas, it is in California. So I would appreciate an update on what we are doing to address this threat, from Mr. Shea or anyone else who would like to speak to the question.</t>
   </si>
   <si>
@@ -220,6 +256,9 @@
     <t xml:space="preserve">    Mr. Shea. Okay. We have been able to handle that, but I would like Mr. El-Lissy to get into some detail about that, if he would.    Mr. Austin Scott of Georgia. Okay.</t>
   </si>
   <si>
+    <t>El-Lissy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. El-Lissy. The cottonseed bug was detected back in 2010, and since then, we have been working with the Florida Department of Agriculture and local officials in surveying and eradicating the pest. So far, we have been able to eradicate it, and we continue to monitor the population there, just to make sure that it is no longer there, and the eradication is still viable, and we have mitigated the problem that way.    Mr. Austin Scott of Georgia. Thank you. And you mentioned the Florida Department of Agriculture. Could you speak further to the relationship between the research and extension at the state level with regard to the eradication of these diseases?</t>
   </si>
   <si>
@@ -229,6 +268,9 @@
     <t xml:space="preserve">    Mr. Shea. Congressman, I would like to ask Dr. Shere, who is not only our Chief Veterinary Officer but a poultry disease specialist, to talk about that.</t>
   </si>
   <si>
+    <t>Shere</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Shere. Thank you. As far as the interagency efforts, we work strongly with all of the states and with the industry in the area of high-path AI. It is very important that we have strong partnerships and strong understandings with them. We want to look at what the infrastructure is in each state and try to build that, and build around that. We work through a cooperative agreement process reinforcing, not only their resources, but that partnership. So we work strongly with each of the states, their Departments of Agriculture, and with the wildlife agencies within those states, the DNRs, also to help us with the tracking of this disease.    We have tested, through a national tracking program and testing program, over 40,000 wild birds. We use that system as an early indication of the disease and a warning system for us.    Mr. Austin Scott of Georgia. I am down to less than a minute. What are the biggest challenges with regard to tracking that disease?</t>
   </si>
   <si>
@@ -274,6 +316,12 @@
     <t>412660</t>
   </si>
   <si>
+    <t>Newhouse</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Costa.    I will recognize myself now for 5 minutes.    I represent the State of Washington, and this is certainly a very big issue in our state as well. And I just want to thank you, Administrator Shea, as well as Mr. Harriger for being here, and all of our witnesses on the panel, especially our canine guest. Kind of brings a different kind of atmosphere. Maybe we should have canines here more often.    But I would say that the average American, myself included, probably takes for granted some of the remarkable things that are done to protect our food supply and our agricultural industry from pests and diseases, so I just want to recognize the great work that you do. I am a former director of our Department of Agriculture, and sometimes I felt like I was the Little Dutch Boy with my finger in the dyke, which is, I know, sometimes how you feel as well. There are a lot of things trying to get in, and a lot of effort that we have to put forth to prevent that.</t>
   </si>
   <si>
@@ -298,6 +346,12 @@
     <t>412580</t>
   </si>
   <si>
+    <t>Vela</t>
+  </si>
+  <si>
+    <t>Filemon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Vela. Thank you.    Mr. Shea, I have two questions for you. And I am very familiar with your agency's work on the Texas-Mexico border. And as you know, along the Rio Grande and on the California-Arizona-New Mexico border as well, the border walls don't really help us fight disease. Right? And with respect to, whether it be boll weevil or citrus greening, or fruit fly or even fever tick, one of the things I am wondering about is, what are your thoughts in terms of efforts to fight disease on our side of the border versus the efforts of the Mexican Government to do so on its side?</t>
   </si>
   <si>
@@ -328,6 +382,9 @@
     <t xml:space="preserve">    Mr. Vela. I yield back.    Mr. Kelly [presiding.] The gentleman's time has expired. I now recognize Mr. Denham for 5 minutes.</t>
   </si>
   <si>
+    <t>Denham</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Denham. Thank you, Mr. Chairman.    Mr. Shea, first of all, let me thank you for the work that you have done on avian influenza in California. California continues to face a number of different threats, but I know there has been some great work done on avian influenza.    One of our other challenges: I have a lot of citrus and stone fruit crops in our area. We have had issues with citrus greening and plum pox virus. Those have been addressed in our area. Our concern is that Canada does not have the same eradication policies that we do. My question to you would be, are you working with our Canadian counterparts, and do you see future efforts there to address it before it comes to our area?</t>
   </si>
   <si>
@@ -359,6 +416,12 @@
   </si>
   <si>
     <t>412673</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Trent</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Kelly. The gentleman's time has expired.    I will now recognize myself for 5 minutes for questions.</t>
@@ -737,7 +800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,7 +808,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,2621 +830,3005 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
       <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
       <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
       <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
       <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>84</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>84</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>25</v>
+      </c>
       <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
       <c r="H66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G68" t="s">
+        <v>25</v>
+      </c>
       <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G71" t="s">
+        <v>25</v>
+      </c>
       <c r="H71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G73" t="s">
+        <v>25</v>
+      </c>
       <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G74" t="s">
+        <v>100</v>
+      </c>
       <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G76" t="s">
+        <v>100</v>
+      </c>
       <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>85</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G78" t="s">
+        <v>100</v>
+      </c>
       <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>85</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G80" t="s">
+        <v>100</v>
+      </c>
       <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>93</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G81" t="s">
+        <v>110</v>
+      </c>
       <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>93</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G83" t="s">
+        <v>110</v>
+      </c>
       <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>84</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>93</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G86" t="s">
+        <v>110</v>
+      </c>
       <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>84</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>93</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G88" t="s">
+        <v>110</v>
+      </c>
       <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>37</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>93</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G90" t="s">
+        <v>110</v>
+      </c>
       <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>122</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>122</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>80</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>122</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>122</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>122</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>114</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G101" t="s">
+        <v>134</v>
+      </c>
       <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>114</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G103" t="s">
+        <v>134</v>
+      </c>
       <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>34</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>114</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G105" t="s">
+        <v>134</v>
+      </c>
       <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>34</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>114</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G107" t="s">
+        <v>134</v>
+      </c>
       <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>114</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G109" t="s">
+        <v>134</v>
+      </c>
       <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>124</v>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>37</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99584.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99584.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>412641</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Rouzer</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>400618</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Costa</t>
   </si>
   <si>
@@ -314,6 +323,9 @@
   </si>
   <si>
     <t>412660</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Newhouse</t>
@@ -800,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,7 +820,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,3002 +845,3168 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>34</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>72</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>34</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>72</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>34</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>37</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>72</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>34</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>80</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>83</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>80</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>83</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>34</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>84</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>87</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>84</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>87</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>84</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
-        <v>84</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>87</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G64" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H64" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G66" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>34</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>37</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G68" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H68" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G71" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H71" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G73" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H73" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G74" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>34</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G76" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="s">
-        <v>34</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G78" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>34</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>37</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G80" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G81" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>34</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>37</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G83" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>34</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>37</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>84</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>87</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G86" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" t="s">
-        <v>84</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>87</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G88" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>37</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>40</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G90" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>122</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>126</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>34</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>37</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>122</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>126</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>34</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>37</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>80</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>83</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>122</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>37</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>122</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>126</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>37</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>40</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>122</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>126</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G101" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="H101" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I101" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>34</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>37</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G103" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="H103" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I103" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J103" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="s">
-        <v>34</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G105" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="H105" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I105" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>34</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>37</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G107" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I107" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>34</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>37</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G109" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I109" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J109" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>37</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>145</v>
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>40</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
